--- a/Specs et architecture/Cablage.xlsx
+++ b/Specs et architecture/Cablage.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yves1812\Documents\GitHub\Robot_tondeuse\Specs et architecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB77B0AA-C8D0-4592-B010-5F82CCE8A7A7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09624088-CDB4-4960-A138-813A1F95BEA7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="4963" activeTab="2" xr2:uid="{E49B8D10-FDBE-40D4-9739-6103193CA538}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="4963" activeTab="4" xr2:uid="{E49B8D10-FDBE-40D4-9739-6103193CA538}"/>
   </bookViews>
   <sheets>
-    <sheet name="DB to TP" sheetId="1" r:id="rId1"/>
-    <sheet name="DB to motors" sheetId="2" r:id="rId2"/>
-    <sheet name="TP to motors" sheetId="3" r:id="rId3"/>
+    <sheet name="Issues" sheetId="4" r:id="rId1"/>
+    <sheet name="MU to TP" sheetId="5" r:id="rId2"/>
+    <sheet name="DB to TP" sheetId="1" r:id="rId3"/>
+    <sheet name="DB to motors" sheetId="2" r:id="rId4"/>
+    <sheet name="TP to motor drivers and motors" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="88">
   <si>
     <t>DB pin</t>
   </si>
@@ -165,6 +167,138 @@
   </si>
   <si>
     <t>Motor driver 2</t>
+  </si>
+  <si>
+    <t>pin 1</t>
+  </si>
+  <si>
+    <t>pin 2</t>
+  </si>
+  <si>
+    <t>pin 4</t>
+  </si>
+  <si>
+    <t>pin 3</t>
+  </si>
+  <si>
+    <t>pin 5</t>
+  </si>
+  <si>
+    <t>pin 6</t>
+  </si>
+  <si>
+    <t>IDE 40 cable section</t>
+  </si>
+  <si>
+    <t>How to manage 1x Dupont or best 90° connectors</t>
+  </si>
+  <si>
+    <t>Check 0.8mm will fit on holes of Mega</t>
+  </si>
+  <si>
+    <t>Check section of Rpi pins</t>
+  </si>
+  <si>
+    <t>Check total current</t>
+  </si>
+  <si>
+    <t>Design power board</t>
+  </si>
+  <si>
+    <t>Option to have an IDE 6 female on the center ICSP connector + IDE 40 for master SS</t>
+  </si>
+  <si>
+    <t>6 wires</t>
+  </si>
+  <si>
+    <t>length 25cm</t>
+  </si>
+  <si>
+    <t>Section tbd</t>
+  </si>
+  <si>
+    <t>Shielded</t>
+  </si>
+  <si>
+    <t>4 wires</t>
+  </si>
+  <si>
+    <t>120cm</t>
+  </si>
+  <si>
+    <t>JST on one end</t>
+  </si>
+  <si>
+    <t>Free on the other</t>
+  </si>
+  <si>
+    <t>25cm</t>
+  </si>
+  <si>
+    <t>5V</t>
+  </si>
+  <si>
+    <t>12V power</t>
+  </si>
+  <si>
+    <t>3 wires</t>
+  </si>
+  <si>
+    <t>section 6A</t>
+  </si>
+  <si>
+    <t>Length 120cm</t>
+  </si>
+  <si>
+    <t>free ended</t>
+  </si>
+  <si>
+    <t>I2C SDA</t>
+  </si>
+  <si>
+    <t>I2C SCL</t>
+  </si>
+  <si>
+    <t>MU pin</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Level shifter in</t>
+  </si>
+  <si>
+    <t>Level shifter out</t>
+  </si>
+  <si>
+    <t>3,3V</t>
+  </si>
+  <si>
+    <t>JST/free ended</t>
+  </si>
+  <si>
+    <t>JST/ free ended</t>
+  </si>
+  <si>
+    <t>JST</t>
+  </si>
+  <si>
+    <t>Vcc</t>
+  </si>
+  <si>
+    <t>decode A (JST)</t>
+  </si>
+  <si>
+    <t>+5V (JST)</t>
+  </si>
+  <si>
+    <t>Ground (JST)</t>
+  </si>
+  <si>
+    <t>decode B (JST)</t>
   </si>
 </sst>
 </file>
@@ -180,12 +314,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -200,9 +364,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,10 +688,268 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EC9AD7-5937-4E68-9FBA-8342A8F57B71}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F6ABB0-5312-42E8-AAE0-685A65192E83}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="14.15234375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.84375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.15234375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="9">
+        <v>20</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="9">
+        <v>21</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE1AFF7A-EAF0-49B9-87D9-881393745DFA}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -530,7 +960,7 @@
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -547,106 +977,126 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>50</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
         <v>51</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>51</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2">
         <v>50</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>52</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2">
         <v>52</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>53</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E7" t="s">
-        <v>9</v>
+      <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -654,15 +1104,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5E5C1B-2EC5-449B-888E-7C24D28A35C7}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="15.3046875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.3046875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -674,16 +1129,16 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -697,9 +1152,12 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
+      <c r="D2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
@@ -711,9 +1169,12 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
@@ -725,9 +1186,12 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
@@ -739,7 +1203,10 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -750,16 +1217,16 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -770,16 +1237,16 @@
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="G7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -793,9 +1260,12 @@
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
+      <c r="D8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
@@ -807,9 +1277,12 @@
       <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D9" s="2"/>
+      <c r="E9" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
@@ -821,9 +1294,12 @@
       <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="F10" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
@@ -835,8 +1311,95 @@
       <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="G11" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="4" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="D16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.4">
+      <c r="D17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -844,17 +1407,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3CCCCF8-576A-46D4-85AE-7E7C09EA4850}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="12.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.3046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.921875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -868,10 +1431,10 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>43</v>
       </c>
     </row>
@@ -885,6 +1448,10 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
@@ -896,6 +1463,10 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
@@ -907,6 +1478,10 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
@@ -918,6 +1493,10 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
@@ -929,6 +1508,10 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
@@ -940,6 +1523,10 @@
       <c r="C7" t="s">
         <v>8</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
@@ -951,6 +1538,10 @@
       <c r="C8" t="s">
         <v>9</v>
       </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
@@ -962,6 +1553,10 @@
       <c r="C9" t="s">
         <v>9</v>
       </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
@@ -973,6 +1568,10 @@
       <c r="C10" t="s">
         <v>8</v>
       </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
@@ -984,6 +1583,10 @@
       <c r="C11" t="s">
         <v>9</v>
       </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
@@ -995,6 +1598,10 @@
       <c r="C12" t="s">
         <v>9</v>
       </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
@@ -1006,13 +1613,97 @@
       <c r="C13" t="s">
         <v>8</v>
       </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="C14" t="s">
-        <v>9</v>
+      <c r="D14" s="2"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="D20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Specs et architecture/Cablage.xlsx
+++ b/Specs et architecture/Cablage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yves1812\Documents\GitHub\Robot_tondeuse\Specs et architecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09624088-CDB4-4960-A138-813A1F95BEA7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0174446-8F08-4586-B562-1FF9DD81D664}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="4963" activeTab="4" xr2:uid="{E49B8D10-FDBE-40D4-9739-6103193CA538}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16460" windowHeight="4960" xr2:uid="{E49B8D10-FDBE-40D4-9739-6103193CA538}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="85">
   <si>
     <t>DB pin</t>
   </si>
@@ -187,16 +187,7 @@
     <t>pin 6</t>
   </si>
   <si>
-    <t>IDE 40 cable section</t>
-  </si>
-  <si>
     <t>How to manage 1x Dupont or best 90° connectors</t>
-  </si>
-  <si>
-    <t>Check 0.8mm will fit on holes of Mega</t>
-  </si>
-  <si>
-    <t>Check section of Rpi pins</t>
   </si>
   <si>
     <t>Check total current</t>
@@ -689,42 +680,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EC9AD7-5937-4E68-9FBA-8342A8F57B71}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -740,71 +716,71 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.15234375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.84375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.15234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -816,36 +792,36 @@
         <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>1</v>
@@ -857,18 +833,18 @@
         <v>1</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>75</v>
-      </c>
       <c r="C9" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D9" s="9">
         <v>20</v>
@@ -877,18 +853,18 @@
         <v>8</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>76</v>
-      </c>
       <c r="C10" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D10" s="9">
         <v>21</v>
@@ -897,10 +873,10 @@
         <v>8</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>15</v>
       </c>
@@ -908,7 +884,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>15</v>
@@ -917,27 +893,27 @@
         <v>9</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -953,14 +929,14 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.23046875" customWidth="1"/>
-    <col min="3" max="3" width="14.53515625" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -977,7 +953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -994,10 +970,10 @@
         <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1014,10 +990,10 @@
         <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1034,10 +1010,10 @@
         <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1054,10 +1030,10 @@
         <v>9</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1074,10 +1050,10 @@
         <v>9</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>41</v>
       </c>
@@ -1094,9 +1070,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1112,14 +1088,14 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="15.3046875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.3046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1142,7 +1118,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1153,13 +1129,13 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="2"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1176,7 +1152,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1193,7 +1169,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1210,7 +1186,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -1218,7 +1194,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>22</v>
@@ -1230,7 +1206,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1238,7 +1214,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>15</v>
@@ -1250,7 +1226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1261,13 +1237,13 @@
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="2"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1284,7 +1260,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1301,7 +1277,7 @@
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1318,88 +1294,88 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="D16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.4">
-      <c r="D17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1411,17 +1387,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3CCCCF8-576A-46D4-85AE-7E7C09EA4850}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="15.3046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.921875" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1438,7 +1414,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -1453,7 +1429,7 @@
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1468,7 +1444,7 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1483,7 +1459,7 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1498,7 +1474,7 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1513,7 +1489,7 @@
       </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -1528,7 +1504,7 @@
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1543,7 +1519,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1558,7 +1534,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1573,7 +1549,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1588,7 +1564,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1603,7 +1579,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1618,92 +1594,92 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D16" s="2" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D19" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="D19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D20" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>15</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="E23" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="E24" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Specs et architecture/Cablage.xlsx
+++ b/Specs et architecture/Cablage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yves1812\Documents\GitHub\Robot_tondeuse\Specs et architecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0174446-8F08-4586-B562-1FF9DD81D664}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE5B49F-FDAF-4E40-A2B5-64F50638B358}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16460" windowHeight="4960" xr2:uid="{E49B8D10-FDBE-40D4-9739-6103193CA538}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16460" windowHeight="4960" activeTab="4" xr2:uid="{E49B8D10-FDBE-40D4-9739-6103193CA538}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="95">
   <si>
     <t>DB pin</t>
   </si>
@@ -79,9 +79,6 @@
     <t>SS</t>
   </si>
   <si>
-    <t>tbd</t>
-  </si>
-  <si>
     <t>Ground</t>
   </si>
   <si>
@@ -290,6 +287,39 @@
   </si>
   <si>
     <t>decode B (JST)</t>
+  </si>
+  <si>
+    <t>rose</t>
+  </si>
+  <si>
+    <t>vert</t>
+  </si>
+  <si>
+    <t>jaune</t>
+  </si>
+  <si>
+    <t>beige</t>
+  </si>
+  <si>
+    <t>ICSP</t>
+  </si>
+  <si>
+    <t>in 1</t>
+  </si>
+  <si>
+    <t>in 2</t>
+  </si>
+  <si>
+    <t>en 12</t>
+  </si>
+  <si>
+    <t>in 3</t>
+  </si>
+  <si>
+    <t>in 4</t>
+  </si>
+  <si>
+    <t>en 34</t>
   </si>
 </sst>
 </file>
@@ -305,7 +335,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,6 +372,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF996633"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -355,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -366,12 +420,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF996633"/>
+      <color rgb="FFFF99FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -682,7 +746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EC9AD7-5937-4E68-9FBA-8342A8F57B71}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
@@ -690,17 +754,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -713,7 +777,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -726,102 +790,110 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="B4" s="2">
+        <v>9</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>1</v>
@@ -833,18 +905,18 @@
         <v>1</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" s="9">
         <v>20</v>
@@ -853,18 +925,18 @@
         <v>8</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="9">
         <v>21</v>
@@ -873,47 +945,47 @@
         <v>8</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -926,7 +998,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -938,10 +1010,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -961,16 +1033,16 @@
         <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="D2" s="2">
         <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -981,16 +1053,16 @@
         <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="D3" s="2">
         <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -1001,16 +1073,16 @@
         <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2">
         <v>52</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -1030,49 +1102,47 @@
         <v>9</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1082,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5E5C1B-2EC5-449B-888E-7C24D28A35C7}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1095,9 +1165,9 @@
     <col min="6" max="7" width="15.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1106,19 +1176,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1129,13 +1199,16 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="2"/>
       <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1147,12 +1220,15 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H3" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1165,11 +1241,14 @@
       <c r="D4" s="2"/>
       <c r="E4" s="4"/>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H4" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1183,52 +1262,61 @@
       <c r="E5" s="4"/>
       <c r="F5" s="2"/>
       <c r="G5" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>23</v>
       </c>
       <c r="B8">
         <v>22</v>
@@ -1237,15 +1325,18 @@
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="2"/>
       <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H8" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>24</v>
@@ -1255,14 +1346,17 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H9" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>50</v>
@@ -1273,13 +1367,16 @@
       <c r="D10" s="2"/>
       <c r="E10" s="4"/>
       <c r="F10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H10" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>52</v>
@@ -1291,91 +1388,94 @@
       <c r="E11" s="4"/>
       <c r="F11" s="2"/>
       <c r="G11" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D14" s="2" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D17" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1385,10 +1485,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3CCCCF8-576A-46D4-85AE-7E7C09EA4850}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1397,9 +1497,9 @@
     <col min="5" max="5" width="13.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -1408,15 +1508,15 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>24</v>
@@ -1425,28 +1525,34 @@
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>30</v>
-      </c>
-      <c r="B3">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>31</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1455,43 +1561,52 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>33</v>
-      </c>
-      <c r="B6">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>34</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -1500,43 +1615,52 @@
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
         <v>36</v>
-      </c>
-      <c r="B9">
-        <v>29</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -1546,42 +1670,51 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11">
         <v>38</v>
-      </c>
-      <c r="B11">
-        <v>30</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -1591,95 +1724,104 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+      <c r="F13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D15" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D16" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D18" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D19" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D20" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Specs et architecture/Cablage.xlsx
+++ b/Specs et architecture/Cablage.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yves1812\Documents\GitHub\Robot_tondeuse\Specs et architecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE5B49F-FDAF-4E40-A2B5-64F50638B358}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EEE1B0-5699-4F36-898A-B794C75F3BE3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16460" windowHeight="4960" activeTab="4" xr2:uid="{E49B8D10-FDBE-40D4-9739-6103193CA538}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16460" windowHeight="4960" activeTab="5" xr2:uid="{E49B8D10-FDBE-40D4-9739-6103193CA538}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="4" r:id="rId1"/>
-    <sheet name="MU to TP" sheetId="5" r:id="rId2"/>
-    <sheet name="DB to TP" sheetId="1" r:id="rId3"/>
-    <sheet name="DB to motors" sheetId="2" r:id="rId4"/>
-    <sheet name="TP to motor drivers and motors" sheetId="3" r:id="rId5"/>
+    <sheet name="TP + &amp; -" sheetId="6" r:id="rId2"/>
+    <sheet name="MU to TP" sheetId="5" r:id="rId3"/>
+    <sheet name="DB to TP" sheetId="1" r:id="rId4"/>
+    <sheet name="DB to motors" sheetId="2" r:id="rId5"/>
+    <sheet name="TP to M &amp; M_driv &amp; Comp" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="126">
   <si>
     <t>DB pin</t>
   </si>
@@ -320,6 +321,99 @@
   </si>
   <si>
     <t>en 34</t>
+  </si>
+  <si>
+    <t>En A pin 3</t>
+  </si>
+  <si>
+    <t>En B pin 4</t>
+  </si>
+  <si>
+    <t>in 1 pin 5</t>
+  </si>
+  <si>
+    <t>in 2 pin 7</t>
+  </si>
+  <si>
+    <t>in 3 pin 6</t>
+  </si>
+  <si>
+    <t>in 4 pin 8</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>pin 1(&amp;2)</t>
+  </si>
+  <si>
+    <t>pin 10 (&amp;9)</t>
+  </si>
+  <si>
+    <t>Motor P4</t>
+  </si>
+  <si>
+    <t>Motor P3</t>
+  </si>
+  <si>
+    <t>JST Fx</t>
+  </si>
+  <si>
+    <t>Gnd</t>
+  </si>
+  <si>
+    <t>RX1</t>
+  </si>
+  <si>
+    <t>TX1</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Compass</t>
+  </si>
+  <si>
+    <t>5 not used</t>
+  </si>
+  <si>
+    <t>RX</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>Motor driver Front</t>
+  </si>
+  <si>
+    <t>Motor driver Rear</t>
+  </si>
+  <si>
+    <t>Conso mA</t>
+  </si>
+  <si>
+    <t>Total Mega</t>
+  </si>
+  <si>
+    <t>Gap to max</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>JSTx2</t>
+  </si>
+  <si>
+    <t>JSTx4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -773,11 +867,94 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D53DEB2-BA70-4E0E-B5E5-CDA2E5C9DE40}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3">
+        <f>2*(1+1)*11</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4">
+        <f>2*(1+1)*11</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8">
+        <f>SUM(B2:B7)</f>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10">
+        <f>B9-B8</f>
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F6ABB0-5312-42E8-AAE0-685A65192E83}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -993,12 +1170,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE1AFF7A-EAF0-49B9-87D9-881393745DFA}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1096,7 +1273,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="2">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
@@ -1150,12 +1327,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5E5C1B-2EC5-449B-888E-7C24D28A35C7}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1196,7 +1373,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>124</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>80</v>
@@ -1216,7 +1393,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>124</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="4" t="s">
@@ -1236,7 +1413,7 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>124</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="4"/>
@@ -1256,7 +1433,7 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>124</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="4"/>
@@ -1273,7 +1450,7 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>81</v>
@@ -1295,8 +1472,11 @@
       <c r="A7" t="s">
         <v>14</v>
       </c>
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>82</v>
@@ -1319,10 +1499,10 @@
         <v>22</v>
       </c>
       <c r="B8">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>83</v>
@@ -1339,10 +1519,10 @@
         <v>25</v>
       </c>
       <c r="B9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="4" t="s">
@@ -1359,10 +1539,10 @@
         <v>23</v>
       </c>
       <c r="B10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="4"/>
@@ -1379,10 +1559,10 @@
         <v>24</v>
       </c>
       <c r="B11">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="4"/>
@@ -1483,12 +1663,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3CCCCF8-576A-46D4-85AE-7E7C09EA4850}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1497,7 +1677,7 @@
     <col min="5" max="5" width="13.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1513,206 +1693,264 @@
       <c r="E1" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2">
-        <v>24</v>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="E2" s="4"/>
-      <c r="F2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+      <c r="H3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="2">
+        <v>3</v>
+      </c>
+      <c r="L3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+      <c r="H4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+      <c r="H5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J5" t="s">
+        <v>111</v>
+      </c>
+      <c r="K5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+      <c r="H6" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" t="s">
+        <v>106</v>
+      </c>
+      <c r="K6" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="D8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="4"/>
       <c r="F8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D10" s="2"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>36</v>
       </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10">
+      <c r="B12">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>8</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -1730,97 +1968,171 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="4"/>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="D16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="D20" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="7" t="s">
+      <c r="D26" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E26" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E27" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D28" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E28" s="8" t="s">
         <v>66</v>
       </c>
     </row>

--- a/Specs et architecture/Cablage.xlsx
+++ b/Specs et architecture/Cablage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yves1812\Documents\GitHub\Robot_tondeuse\Specs et architecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EEE1B0-5699-4F36-898A-B794C75F3BE3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2929A294-4485-480C-9E6E-047D002C569B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16460" windowHeight="4960" activeTab="5" xr2:uid="{E49B8D10-FDBE-40D4-9739-6103193CA538}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16460" windowHeight="4960" activeTab="4" xr2:uid="{E49B8D10-FDBE-40D4-9739-6103193CA538}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="4" r:id="rId1"/>
@@ -1331,7 +1331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5E5C1B-2EC5-449B-888E-7C24D28A35C7}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1667,7 +1667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3CCCCF8-576A-46D4-85AE-7E7C09EA4850}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>

--- a/Specs et architecture/Cablage.xlsx
+++ b/Specs et architecture/Cablage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yves1812\Documents\GitHub\Robot_tondeuse\Specs et architecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2929A294-4485-480C-9E6E-047D002C569B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A24CE0-8FA6-44FB-A178-0AF2FEB20078}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16460" windowHeight="4960" activeTab="4" xr2:uid="{E49B8D10-FDBE-40D4-9739-6103193CA538}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16460" windowHeight="4960" activeTab="5" xr2:uid="{E49B8D10-FDBE-40D4-9739-6103193CA538}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="4" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="TP to M &amp; M_driv &amp; Comp" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="134">
   <si>
     <t>DB pin</t>
   </si>
@@ -62,9 +63,6 @@
     <t>Pulse RR</t>
   </si>
   <si>
-    <t>1x</t>
-  </si>
-  <si>
     <t>IDE 40</t>
   </si>
   <si>
@@ -326,94 +324,121 @@
     <t>En A pin 3</t>
   </si>
   <si>
+    <t>in 1 pin 5</t>
+  </si>
+  <si>
+    <t>in 2 pin 7</t>
+  </si>
+  <si>
+    <t>in 3 pin 6</t>
+  </si>
+  <si>
+    <t>in 4 pin 8</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>pin 1(&amp;2)</t>
+  </si>
+  <si>
+    <t>pin 10 (&amp;9)</t>
+  </si>
+  <si>
+    <t>Motor P4</t>
+  </si>
+  <si>
+    <t>Motor P3</t>
+  </si>
+  <si>
+    <t>JST Fx</t>
+  </si>
+  <si>
+    <t>Gnd</t>
+  </si>
+  <si>
+    <t>RX1</t>
+  </si>
+  <si>
+    <t>TX1</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Compass</t>
+  </si>
+  <si>
+    <t>5 not used</t>
+  </si>
+  <si>
+    <t>RX</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>Motor driver Front</t>
+  </si>
+  <si>
+    <t>Motor driver Rear</t>
+  </si>
+  <si>
+    <t>Conso mA</t>
+  </si>
+  <si>
+    <t>Total Mega</t>
+  </si>
+  <si>
+    <t>Gap to max</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>JSTx2</t>
+  </si>
+  <si>
+    <t>JSTx4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>JST 4x</t>
+  </si>
+  <si>
+    <t>JST 6x</t>
+  </si>
+  <si>
+    <t>Faisceau 5V &amp; Ground</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>M driver 1</t>
+  </si>
+  <si>
+    <t>I2C Level shifter</t>
+  </si>
+  <si>
+    <t>IDE</t>
+  </si>
+  <si>
+    <t>JSTx6</t>
+  </si>
+  <si>
+    <t>Comp mode</t>
+  </si>
+  <si>
+    <t>M driver 2</t>
+  </si>
+  <si>
     <t>En B pin 4</t>
-  </si>
-  <si>
-    <t>in 1 pin 5</t>
-  </si>
-  <si>
-    <t>in 2 pin 7</t>
-  </si>
-  <si>
-    <t>in 3 pin 6</t>
-  </si>
-  <si>
-    <t>in 4 pin 8</t>
-  </si>
-  <si>
-    <t>GND</t>
-  </si>
-  <si>
-    <t>pin 1(&amp;2)</t>
-  </si>
-  <si>
-    <t>pin 10 (&amp;9)</t>
-  </si>
-  <si>
-    <t>Motor P4</t>
-  </si>
-  <si>
-    <t>Motor P3</t>
-  </si>
-  <si>
-    <t>JST Fx</t>
-  </si>
-  <si>
-    <t>Gnd</t>
-  </si>
-  <si>
-    <t>RX1</t>
-  </si>
-  <si>
-    <t>TX1</t>
-  </si>
-  <si>
-    <t>Mode</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Compass</t>
-  </si>
-  <si>
-    <t>5 not used</t>
-  </si>
-  <si>
-    <t>RX</t>
-  </si>
-  <si>
-    <t>TX</t>
-  </si>
-  <si>
-    <t>MU</t>
-  </si>
-  <si>
-    <t>Motor driver Front</t>
-  </si>
-  <si>
-    <t>Motor driver Rear</t>
-  </si>
-  <si>
-    <t>Conso mA</t>
-  </si>
-  <si>
-    <t>Total Mega</t>
-  </si>
-  <si>
-    <t>Gap to max</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>JSTx2</t>
-  </si>
-  <si>
-    <t>JSTx4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -848,17 +873,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -881,12 +906,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B2">
         <v>20</v>
@@ -894,7 +919,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B3">
         <f>2*(1+1)*11</f>
@@ -903,7 +928,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B4">
         <f>2*(1+1)*11</f>
@@ -912,7 +937,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -920,7 +945,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B8">
         <f>SUM(B2:B7)</f>
@@ -929,7 +954,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B9">
         <v>200</v>
@@ -937,7 +962,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B10">
         <f>B9-B8</f>
@@ -954,7 +979,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -967,110 +992,110 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2">
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>1</v>
@@ -1082,87 +1107,87 @@
         <v>1</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" s="9">
         <v>20</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="9">
         <v>21</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>9</v>
+        <v>61</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1187,10 +1212,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1204,122 +1229,122 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2">
         <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2">
         <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2">
         <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" s="2">
         <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2">
         <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2">
         <v>52</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2">
         <v>53</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2">
         <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1331,8 +1356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF5E5C1B-2EC5-449B-888E-7C24D28A35C7}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1344,7 +1369,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1353,16 +1378,16 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -1373,16 +1398,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="2"/>
       <c r="G2" s="4"/>
       <c r="H2" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -1393,16 +1418,16 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="4"/>
       <c r="H3" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -1413,16 +1438,16 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="4"/>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -1433,229 +1458,229 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="4"/>
       <c r="F5" s="2"/>
       <c r="G5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="2"/>
       <c r="G8" s="4"/>
       <c r="H8" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="4"/>
       <c r="H9" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="4"/>
       <c r="F10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="4"/>
       <c r="F11" s="2"/>
       <c r="G11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D12" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D13" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D15" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D16" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D17" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1665,10 +1690,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3CCCCF8-576A-46D4-85AE-7E7C09EA4850}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1677,9 +1702,9 @@
     <col min="5" max="5" width="13.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -1688,13 +1713,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
@@ -1703,437 +1728,515 @@
         <v>1</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>106</v>
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E2" s="4"/>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>106</v>
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="K2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I3">
         <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="K3" s="2">
         <v>3</v>
       </c>
       <c r="L3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+      <c r="M3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I4">
         <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="K4" s="2">
         <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+      <c r="M4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="H5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I5" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="J5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="K5" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K6" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="L6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8">
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D10" s="2"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>106</v>
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
-      <c r="C12" t="s">
-        <v>8</v>
+      <c r="C12" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+      <c r="H12" t="s">
+        <v>104</v>
+      </c>
+      <c r="I12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
-      <c r="C13" t="s">
-        <v>8</v>
+      <c r="C13" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+      <c r="I13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" t="s">
+        <v>131</v>
+      </c>
+      <c r="L13" t="s">
+        <v>128</v>
+      </c>
+      <c r="M13" t="s">
+        <v>127</v>
+      </c>
+      <c r="N13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
-        <v>9</v>
+      <c r="C14" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
+        <v>120</v>
+      </c>
+      <c r="J14" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M14" t="s">
+        <v>129</v>
+      </c>
+      <c r="N14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15">
         <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+      <c r="H15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" t="s">
+        <v>120</v>
+      </c>
+      <c r="J15" t="s">
+        <v>130</v>
+      </c>
+      <c r="K15" t="s">
+        <v>130</v>
+      </c>
+      <c r="L15" t="s">
+        <v>130</v>
+      </c>
+      <c r="M15" t="s">
+        <v>129</v>
+      </c>
+      <c r="N15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16">
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B18" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D19" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D20" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D21" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D22" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D23" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D24" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Specs et architecture/Cablage.xlsx
+++ b/Specs et architecture/Cablage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yves1812\Documents\GitHub\Robot_tondeuse\Specs et architecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A24CE0-8FA6-44FB-A178-0AF2FEB20078}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC081C8-30FD-4D52-A765-9B7771518B5C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16460" windowHeight="4960" activeTab="5" xr2:uid="{E49B8D10-FDBE-40D4-9739-6103193CA538}"/>
+    <workbookView xWindow="530" yWindow="580" windowWidth="14400" windowHeight="9230" activeTab="5" xr2:uid="{E49B8D10-FDBE-40D4-9739-6103193CA538}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="TP to M &amp; M_driv &amp; Comp" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1692,8 +1691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3CCCCF8-576A-46D4-85AE-7E7C09EA4850}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1766,7 +1765,7 @@
         <v>29</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>123</v>
@@ -1802,7 +1801,7 @@
         <v>32</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>123</v>
@@ -1977,7 +1976,7 @@
         <v>35</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>123</v>
@@ -2001,7 +2000,7 @@
         <v>38</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>123</v>
